--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H2">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.221457</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N2">
-        <v>192.664371</v>
+        <v>168.505272</v>
       </c>
       <c r="O2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q2">
-        <v>10.33982583421867</v>
+        <v>7.44821386452</v>
       </c>
       <c r="R2">
-        <v>93.05843250796801</v>
+        <v>67.03392478068</v>
       </c>
       <c r="S2">
-        <v>0.8366610301096816</v>
+        <v>0.6226736846770882</v>
       </c>
       <c r="T2">
-        <v>0.8366610301096816</v>
+        <v>0.6226736846770882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H3">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1378666371208897</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P3">
-        <v>0.1378666371208896</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q3">
-        <v>1.703816677098667</v>
+        <v>1.403297318885</v>
       </c>
       <c r="R3">
-        <v>15.334350093888</v>
+        <v>12.629675869965</v>
       </c>
       <c r="S3">
-        <v>0.1378666371208897</v>
+        <v>0.1173162221361529</v>
       </c>
       <c r="T3">
-        <v>0.1378666371208896</v>
+        <v>0.1173162221361528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1610026666666667</v>
+        <v>0.132605</v>
       </c>
       <c r="H4">
-        <v>0.483008</v>
+        <v>0.397815</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.776265286171174</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,338 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.955236666666667</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N4">
-        <v>5.86571</v>
+        <v>9.788392</v>
       </c>
       <c r="O4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q4">
-        <v>0.3147983172977777</v>
+        <v>0.4326632403866666</v>
       </c>
       <c r="R4">
-        <v>2.83318485568</v>
+        <v>3.89396916348</v>
       </c>
       <c r="S4">
-        <v>0.02547233276942866</v>
+        <v>0.03617082149040259</v>
       </c>
       <c r="T4">
-        <v>0.02547233276942866</v>
+        <v>0.03617082149040259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.132605</v>
+      </c>
+      <c r="H5">
+        <v>0.397815</v>
+      </c>
+      <c r="I5">
+        <v>0.776265286171174</v>
+      </c>
+      <c r="J5">
+        <v>0.776265286171174</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.028295</v>
+      </c>
+      <c r="O5">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P5">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q5">
+        <v>0.001250686158333333</v>
+      </c>
+      <c r="R5">
+        <v>0.011256175425</v>
+      </c>
+      <c r="S5">
+        <v>0.0001045578675303299</v>
+      </c>
+      <c r="T5">
+        <v>0.0001045578675303299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.114658</v>
+      </c>
+      <c r="I6">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J6">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>56.16842399999999</v>
+      </c>
+      <c r="N6">
+        <v>168.505272</v>
+      </c>
+      <c r="O6">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="P6">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="Q6">
+        <v>2.146719719664</v>
+      </c>
+      <c r="R6">
+        <v>19.320477476976</v>
+      </c>
+      <c r="S6">
+        <v>0.1794666348370614</v>
+      </c>
+      <c r="T6">
+        <v>0.1794666348370614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.114658</v>
+      </c>
+      <c r="I7">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J7">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.582537</v>
+      </c>
+      <c r="N7">
+        <v>31.747611</v>
+      </c>
+      <c r="O7">
+        <v>0.1511290331103168</v>
+      </c>
+      <c r="P7">
+        <v>0.1511290331103167</v>
+      </c>
+      <c r="Q7">
+        <v>0.4044575091153333</v>
+      </c>
+      <c r="R7">
+        <v>3.640117582038</v>
+      </c>
+      <c r="S7">
+        <v>0.03381281097416391</v>
+      </c>
+      <c r="T7">
+        <v>0.0338128109741639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.114658</v>
+      </c>
+      <c r="I8">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J8">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.262797333333333</v>
+      </c>
+      <c r="N8">
+        <v>9.788392</v>
+      </c>
+      <c r="O8">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="P8">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="Q8">
+        <v>0.1247019388817778</v>
+      </c>
+      <c r="R8">
+        <v>1.122317449936</v>
+      </c>
+      <c r="S8">
+        <v>0.01042513241191654</v>
+      </c>
+      <c r="T8">
+        <v>0.01042513241191654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03821933333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.114658</v>
+      </c>
+      <c r="I9">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="J9">
+        <v>0.2237347138288261</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.028295</v>
+      </c>
+      <c r="O9">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P9">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q9">
+        <v>0.0003604720122222222</v>
+      </c>
+      <c r="R9">
+        <v>0.00324424811</v>
+      </c>
+      <c r="S9">
+        <v>3.01356056842818E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.013560568428181E-05</v>
       </c>
     </row>
   </sheetData>
